--- a/app/gua_auto_results.xlsx
+++ b/app/gua_auto_results.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX187"/>
+  <dimension ref="A1:AX197"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AB142" workbookViewId="0">
       <selection activeCell="AQ154" sqref="AQ154"/>
@@ -30734,6 +30734,1606 @@
         </is>
       </c>
     </row>
+    <row r="188">
+      <c r="B188" t="n">
+        <v>187</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2025-10-21 21:50:05</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>ea1939b33acd5ce06356bf7f635d431d</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>21:49</t>
+        </is>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>乙巳</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
+        <v>9</v>
+      </c>
+      <c r="O188" t="n">
+        <v>1</v>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>寒露</t>
+        </is>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>乙巳</t>
+        </is>
+      </c>
+      <c r="R188" t="inlineStr">
+        <is>
+          <t>丙戌</t>
+        </is>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>癸亥</t>
+        </is>
+      </c>
+      <c r="T188" t="inlineStr">
+        <is>
+          <t>癸亥</t>
+        </is>
+      </c>
+      <c r="U188" t="inlineStr">
+        <is>
+          <t>寅卯</t>
+        </is>
+      </c>
+      <c r="V188" t="inlineStr">
+        <is>
+          <t>午未</t>
+        </is>
+      </c>
+      <c r="W188" t="inlineStr">
+        <is>
+          <t>子丑</t>
+        </is>
+      </c>
+      <c r="X188" t="inlineStr">
+        <is>
+          <t>子丑</t>
+        </is>
+      </c>
+      <c r="Y188" t="inlineStr">
+        <is>
+          <t>寒露10月8日8:42</t>
+        </is>
+      </c>
+      <c r="Z188" t="inlineStr">
+        <is>
+          <t>霜降10月23日11:52</t>
+        </is>
+      </c>
+      <c r="AA188" t="inlineStr">
+        <is>
+          <t>卯</t>
+        </is>
+      </c>
+      <c r="AB188" t="inlineStr">
+        <is>
+          <t>一爻</t>
+        </is>
+      </c>
+      <c r="AD188" t="inlineStr">
+        <is>
+          <t>岁破亥乾，月破辰巽，日破巳巽，天德丙，月德丙，昼贵巳……＝＝（更多神煞注册可见）</t>
+        </is>
+      </c>
+      <c r="AE188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">公历： 2025年10月21日21:50 星期二
+农历： 乙巳(蛇)年九月大初一 寒露 
+干支：　乙巳　丙戌　癸亥　癸亥
+旬空：　寅卯　午未　子丑　子丑
+寒露10月8日8:42  霜降10月23日11:52 
+六神　　伏神　　雷天大壮[坤宫四世卦]　　　
+白虎　　　　　　▆▆　▆▆兄弟庚戌土　　　　
+螣蛇　　　　　　▆▆　▆▆子孙庚申金　　　　
+勾陈　　　　　　▆▆▆▆▆父母庚午火世　　　
+朱雀　　　　　　▆▆▆▆▆兄弟甲辰土　　　　
+青龙　　　　　　▆▆▆▆▆官鬼甲寅木　　　　
+玄武　　　　　　▆▆▆▆▆妻财甲子水应　　　
+　　　　　　　　　[本卦]　　　　　　　　　
+</t>
+        </is>
+      </c>
+      <c r="AF188" t="inlineStr">
+        <is>
+          <t>大壮之大壮；月卦身卯；世身在一爻； 
+神煞：岁破亥乾，月破辰巽，日破巳巽，天德丙，月德丙，昼贵巳……＝＝（更多神煞注册可见）</t>
+        </is>
+      </c>
+      <c r="AG188" t="inlineStr">
+        <is>
+          <t>大壮之大壮</t>
+        </is>
+      </c>
+      <c r="AH188" t="inlineStr">
+        <is>
+          <t>大壮</t>
+        </is>
+      </c>
+      <c r="AI188" t="inlineStr">
+        <is>
+          <t>大壮</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="B189" t="n">
+        <v>188</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2025-10-21 21:50:07</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>25fe866638fc3a91bdf5fdd47befb6b0</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>21:49</t>
+        </is>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>乙巳</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
+        <v>9</v>
+      </c>
+      <c r="O189" t="n">
+        <v>1</v>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>寒露</t>
+        </is>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>乙巳</t>
+        </is>
+      </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>丙戌</t>
+        </is>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>癸亥</t>
+        </is>
+      </c>
+      <c r="T189" t="inlineStr">
+        <is>
+          <t>癸亥</t>
+        </is>
+      </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>寅卯</t>
+        </is>
+      </c>
+      <c r="V189" t="inlineStr">
+        <is>
+          <t>午未</t>
+        </is>
+      </c>
+      <c r="W189" t="inlineStr">
+        <is>
+          <t>子丑</t>
+        </is>
+      </c>
+      <c r="X189" t="inlineStr">
+        <is>
+          <t>子丑</t>
+        </is>
+      </c>
+      <c r="Y189" t="inlineStr">
+        <is>
+          <t>寒露10月8日8:42</t>
+        </is>
+      </c>
+      <c r="Z189" t="inlineStr">
+        <is>
+          <t>霜降10月23日11:52</t>
+        </is>
+      </c>
+      <c r="AA189" t="inlineStr">
+        <is>
+          <t>申</t>
+        </is>
+      </c>
+      <c r="AB189" t="inlineStr">
+        <is>
+          <t>四爻</t>
+        </is>
+      </c>
+      <c r="AD189" t="inlineStr">
+        <is>
+          <t>岁破亥乾，月破辰巽，日破巳巽，天德丙，月德丙，昼贵巳……＝＝（更多神煞注册可见）</t>
+        </is>
+      </c>
+      <c r="AE189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">公历： 2025年10月21日21:50 星期二
+农历： 乙巳(蛇)年九月大初一 寒露 
+干支：　乙巳　丙戌　癸亥　癸亥
+旬空：　寅卯　午未　子丑　子丑
+寒露10月8日8:42  霜降10月23日11:52 
+六神　　伏神　　天地否[乾宫三世卦]　　　　　天水讼[离宫游魂卦]　
+白虎　　　　　　▆▆▆▆▆父母壬戌土应　　　▆▆▆▆▆父母壬戌土　　
+螣蛇　　　　　　▆▆▆▆▆兄弟壬申金　　　　▆▆▆▆▆兄弟壬申金　　
+勾陈　　　　　　▆▆▆▆▆官鬼壬午火　　　　▆▆▆▆▆官鬼壬午火世　
+朱雀　　　　　　▆▆　▆▆妻财乙卯木世　　　▆▆　▆▆官鬼戊午火　　
+青龙　　　　　　▆▆　▆▆官鬼乙巳火　Ｘ→　▆▆▆▆▆父母戊辰土　　
+玄武　子孙甲子水▆▆　▆▆父母乙未土　　　　▆▆　▆▆妻财戊寅木应　
+　　　　　　　　　[本卦]　　　　　　　　　　　[变卦]　　　　　　
+</t>
+        </is>
+      </c>
+      <c r="AF189" t="inlineStr">
+        <is>
+          <t>否之讼；月卦身申；世身在四爻； 
+神煞：岁破亥乾，月破辰巽，日破巳巽，天德丙，月德丙，昼贵巳……＝＝（更多神煞注册可见）</t>
+        </is>
+      </c>
+      <c r="AG189" t="inlineStr">
+        <is>
+          <t>否之讼</t>
+        </is>
+      </c>
+      <c r="AH189" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="AI189" t="inlineStr">
+        <is>
+          <t>讼</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="B190" t="n">
+        <v>189</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2025-10-21 21:50:08</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>ebfa96948617146538aa83533a6945e0</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>21:49</t>
+        </is>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>乙巳</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
+        <v>9</v>
+      </c>
+      <c r="O190" t="n">
+        <v>1</v>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>寒露</t>
+        </is>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>乙巳</t>
+        </is>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>丙戌</t>
+        </is>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>癸亥</t>
+        </is>
+      </c>
+      <c r="T190" t="inlineStr">
+        <is>
+          <t>癸亥</t>
+        </is>
+      </c>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>寅卯</t>
+        </is>
+      </c>
+      <c r="V190" t="inlineStr">
+        <is>
+          <t>午未</t>
+        </is>
+      </c>
+      <c r="W190" t="inlineStr">
+        <is>
+          <t>子丑</t>
+        </is>
+      </c>
+      <c r="X190" t="inlineStr">
+        <is>
+          <t>子丑</t>
+        </is>
+      </c>
+      <c r="Y190" t="inlineStr">
+        <is>
+          <t>寒露10月8日8:42</t>
+        </is>
+      </c>
+      <c r="Z190" t="inlineStr">
+        <is>
+          <t>霜降10月23日11:52</t>
+        </is>
+      </c>
+      <c r="AA190" t="inlineStr">
+        <is>
+          <t>申</t>
+        </is>
+      </c>
+      <c r="AB190" t="inlineStr">
+        <is>
+          <t>一爻</t>
+        </is>
+      </c>
+      <c r="AD190" t="inlineStr">
+        <is>
+          <t>岁破亥乾，月破辰巽，日破巳巽，天德丙，月德丙，昼贵巳……＝＝（更多神煞注册可见）</t>
+        </is>
+      </c>
+      <c r="AE190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">公历： 2025年10月21日21:50 星期二
+农历： 乙巳(蛇)年九月大初一 寒露 
+干支：　乙巳　丙戌　癸亥　癸亥
+旬空：　寅卯　午未　子丑　子丑
+寒露10月8日8:42  霜降10月23日11:52 
+六神　　伏神　　地水师[坎宫归魂卦]　　　　　地风升[震宫四世卦]　
+白虎　　　　　　▆▆　▆▆父母癸酉金应　　　▆▆　▆▆父母癸酉金　　
+螣蛇　　　　　　▆▆　▆▆兄弟癸亥水　　　　▆▆　▆▆兄弟癸亥水　　
+勾陈　　　　　　▆▆　▆▆官鬼癸丑土　　　　▆▆　▆▆官鬼癸丑土世　
+朱雀　　　　　　▆▆　▆▆妻财戊午火世Ｘ→　▆▆▆▆▆父母辛酉金　　
+青龙　　　　　　▆▆▆▆▆官鬼戊辰土　　　　▆▆▆▆▆兄弟辛亥水　　
+玄武　　　　　　▆▆　▆▆子孙戊寅木　　　　▆▆　▆▆官鬼辛丑土应　
+　　　　　　　　　[本卦]　　　　　　　　　　　[变卦]　　　　　　
+</t>
+        </is>
+      </c>
+      <c r="AF190" t="inlineStr">
+        <is>
+          <t>师之升；月卦身申；世身在一爻； 
+神煞：岁破亥乾，月破辰巽，日破巳巽，天德丙，月德丙，昼贵巳……＝＝（更多神煞注册可见）</t>
+        </is>
+      </c>
+      <c r="AG190" t="inlineStr">
+        <is>
+          <t>师之升</t>
+        </is>
+      </c>
+      <c r="AH190" t="inlineStr">
+        <is>
+          <t>师</t>
+        </is>
+      </c>
+      <c r="AI190" t="inlineStr">
+        <is>
+          <t>升</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="B191" t="n">
+        <v>190</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2025-10-21 21:50:09</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>089e261e927736dc096afeb63be89e47</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>21:49</t>
+        </is>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>乙巳</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
+        <v>9</v>
+      </c>
+      <c r="O191" t="n">
+        <v>1</v>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>寒露</t>
+        </is>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>乙巳</t>
+        </is>
+      </c>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>丙戌</t>
+        </is>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>癸亥</t>
+        </is>
+      </c>
+      <c r="T191" t="inlineStr">
+        <is>
+          <t>癸亥</t>
+        </is>
+      </c>
+      <c r="U191" t="inlineStr">
+        <is>
+          <t>寅卯</t>
+        </is>
+      </c>
+      <c r="V191" t="inlineStr">
+        <is>
+          <t>午未</t>
+        </is>
+      </c>
+      <c r="W191" t="inlineStr">
+        <is>
+          <t>子丑</t>
+        </is>
+      </c>
+      <c r="X191" t="inlineStr">
+        <is>
+          <t>子丑</t>
+        </is>
+      </c>
+      <c r="Y191" t="inlineStr">
+        <is>
+          <t>寒露10月8日8:42</t>
+        </is>
+      </c>
+      <c r="Z191" t="inlineStr">
+        <is>
+          <t>霜降10月23日11:52</t>
+        </is>
+      </c>
+      <c r="AA191" t="inlineStr">
+        <is>
+          <t>未</t>
+        </is>
+      </c>
+      <c r="AB191" t="inlineStr">
+        <is>
+          <t>六爻</t>
+        </is>
+      </c>
+      <c r="AD191" t="inlineStr">
+        <is>
+          <t>岁破亥乾，月破辰巽，日破巳巽，天德丙，月德丙，昼贵巳……＝＝（更多神煞注册可见）</t>
+        </is>
+      </c>
+      <c r="AE191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">公历： 2025年10月21日21:50 星期二
+农历： 乙巳(蛇)年九月大初一 寒露 
+干支：　乙巳　丙戌　癸亥　癸亥
+旬空：　寅卯　午未　子丑　子丑
+寒露10月8日8:42  霜降10月23日11:52 
+六神　　伏神　　泽地萃[兑宫二世卦]　　　　　泽山咸[兑宫三世卦]　
+白虎　　　　　　▆▆　▆▆父母丁未土　　　　▆▆　▆▆父母丁未土应　
+螣蛇　　　　　　▆▆▆▆▆兄弟丁酉金应　　　▆▆▆▆▆兄弟丁酉金　　
+勾陈　　　　　　▆▆▆▆▆子孙丁亥水　　　　▆▆▆▆▆子孙丁亥水　　
+朱雀　　　　　　▆▆　▆▆妻财乙卯木　Ｘ→　▆▆▆▆▆兄弟丙申金世　
+青龙　　　　　　▆▆　▆▆官鬼乙巳火世　　　▆▆　▆▆官鬼丙午火　　
+玄武　　　　　　▆▆　▆▆父母乙未土　　　　▆▆　▆▆父母丙辰土　　
+　　　　　　　　　[本卦]　　　　　　　　　　　[变卦]　　　　　　
+</t>
+        </is>
+      </c>
+      <c r="AF191" t="inlineStr">
+        <is>
+          <t>萃之咸；月卦身未；世身在六爻； 
+神煞：岁破亥乾，月破辰巽，日破巳巽，天德丙，月德丙，昼贵巳……＝＝（更多神煞注册可见）</t>
+        </is>
+      </c>
+      <c r="AG191" t="inlineStr">
+        <is>
+          <t>萃之咸</t>
+        </is>
+      </c>
+      <c r="AH191" t="inlineStr">
+        <is>
+          <t>萃</t>
+        </is>
+      </c>
+      <c r="AI191" t="inlineStr">
+        <is>
+          <t>咸</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="B192" t="n">
+        <v>191</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2025-10-21 21:50:16</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>b8f1274f383b649ff38490fd2339ca28</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>21:49</t>
+        </is>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>乙巳</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
+        <v>9</v>
+      </c>
+      <c r="O192" t="n">
+        <v>1</v>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>寒露</t>
+        </is>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>乙巳</t>
+        </is>
+      </c>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>丙戌</t>
+        </is>
+      </c>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t>癸亥</t>
+        </is>
+      </c>
+      <c r="T192" t="inlineStr">
+        <is>
+          <t>癸亥</t>
+        </is>
+      </c>
+      <c r="U192" t="inlineStr">
+        <is>
+          <t>寅卯</t>
+        </is>
+      </c>
+      <c r="V192" t="inlineStr">
+        <is>
+          <t>午未</t>
+        </is>
+      </c>
+      <c r="W192" t="inlineStr">
+        <is>
+          <t>子丑</t>
+        </is>
+      </c>
+      <c r="X192" t="inlineStr">
+        <is>
+          <t>子丑</t>
+        </is>
+      </c>
+      <c r="Y192" t="inlineStr">
+        <is>
+          <t>寒露10月8日8:42</t>
+        </is>
+      </c>
+      <c r="Z192" t="inlineStr">
+        <is>
+          <t>霜降10月23日11:52</t>
+        </is>
+      </c>
+      <c r="AA192" t="inlineStr">
+        <is>
+          <t>酉</t>
+        </is>
+      </c>
+      <c r="AB192" t="inlineStr">
+        <is>
+          <t>二爻</t>
+        </is>
+      </c>
+      <c r="AD192" t="inlineStr">
+        <is>
+          <t>岁破亥乾，月破辰巽，日破巳巽，天德丙，月德丙，昼贵巳……＝＝（更多神煞注册可见）</t>
+        </is>
+      </c>
+      <c r="AE192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">公历： 2025年10月21日21:50 星期二
+农历： 乙巳(蛇)年九月大初一 寒露 
+干支：　乙巳　丙戌　癸亥　癸亥
+旬空：　寅卯　午未　子丑　子丑
+寒露10月8日8:42  霜降10月23日11:52 
+六神　　伏神　　地风升[震宫四世卦]　　　　
+白虎　　　　　　▆▆　▆▆官鬼癸酉金　　　　
+螣蛇　　　　　　▆▆　▆▆父母癸亥水　　　　
+勾陈　子孙庚午火▆▆　▆▆妻财癸丑土世　　　
+朱雀　　　　　　▆▆▆▆▆官鬼辛酉金　　　　
+青龙　兄弟庚寅木▆▆▆▆▆父母辛亥水　　　　
+玄武　　　　　　▆▆　▆▆妻财辛丑土应　　　
+　　　　　　　　　[本卦]　　　　　　　　　
+</t>
+        </is>
+      </c>
+      <c r="AF192" t="inlineStr">
+        <is>
+          <t>升之升；月卦身酉；世身在二爻； 
+神煞：岁破亥乾，月破辰巽，日破巳巽，天德丙，月德丙，昼贵巳……＝＝（更多神煞注册可见）</t>
+        </is>
+      </c>
+      <c r="AG192" t="inlineStr">
+        <is>
+          <t>升之升</t>
+        </is>
+      </c>
+      <c r="AH192" t="inlineStr">
+        <is>
+          <t>升</t>
+        </is>
+      </c>
+      <c r="AI192" t="inlineStr">
+        <is>
+          <t>升</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="B193" t="n">
+        <v>192</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2025-10-21 21:50:17</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>adb9e55314df72b122139732921b6780</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>21:49</t>
+        </is>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>乙巳</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
+        <v>9</v>
+      </c>
+      <c r="O193" t="n">
+        <v>1</v>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>寒露</t>
+        </is>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>乙巳</t>
+        </is>
+      </c>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t>丙戌</t>
+        </is>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>癸亥</t>
+        </is>
+      </c>
+      <c r="T193" t="inlineStr">
+        <is>
+          <t>癸亥</t>
+        </is>
+      </c>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t>寅卯</t>
+        </is>
+      </c>
+      <c r="V193" t="inlineStr">
+        <is>
+          <t>午未</t>
+        </is>
+      </c>
+      <c r="W193" t="inlineStr">
+        <is>
+          <t>子丑</t>
+        </is>
+      </c>
+      <c r="X193" t="inlineStr">
+        <is>
+          <t>子丑</t>
+        </is>
+      </c>
+      <c r="Y193" t="inlineStr">
+        <is>
+          <t>寒露10月8日8:42</t>
+        </is>
+      </c>
+      <c r="Z193" t="inlineStr">
+        <is>
+          <t>霜降10月23日11:52</t>
+        </is>
+      </c>
+      <c r="AA193" t="inlineStr">
+        <is>
+          <t>寅</t>
+        </is>
+      </c>
+      <c r="AB193" t="inlineStr">
+        <is>
+          <t>四爻</t>
+        </is>
+      </c>
+      <c r="AD193" t="inlineStr">
+        <is>
+          <t>岁破亥乾，月破辰巽，日破巳巽，天德丙，月德丙，昼贵巳……＝＝（更多神煞注册可见）</t>
+        </is>
+      </c>
+      <c r="AE193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">公历： 2025年10月21日21:50 星期二
+农历： 乙巳(蛇)年九月大初一 寒露 
+干支：　乙巳　丙戌　癸亥　癸亥
+旬空：　寅卯　午未　子丑　子丑
+寒露10月8日8:42  霜降10月23日11:52 
+六神　　伏神　　雷风恒[震宫三世卦]　　　　　火天大有[乾宫归魂卦]
+白虎　　　　　　▆▆　▆▆妻财庚戌土应Ｘ→　▆▆▆▆▆子孙己巳火应　
+螣蛇　　　　　　▆▆　▆▆官鬼庚申金　　　　▆▆　▆▆妻财己未土　　
+勾陈　　　　　　▆▆▆▆▆子孙庚午火　　　　▆▆▆▆▆官鬼己酉金　　
+朱雀　　　　　　▆▆▆▆▆官鬼辛酉金世　　　▆▆▆▆▆妻财甲辰土世　
+青龙　兄弟庚寅木▆▆▆▆▆父母辛亥水　　　　▆▆▆▆▆兄弟甲寅木　　
+玄武　　　　　　▆▆　▆▆妻财辛丑土　Ｘ→　▆▆▆▆▆父母甲子水　　
+　　　　　　　　　[本卦]　　　　　　　　　　　[变卦]　　　　　　
+</t>
+        </is>
+      </c>
+      <c r="AF193" t="inlineStr">
+        <is>
+          <t>恒之大有；月卦身寅；世身在四爻； 
+神煞：岁破亥乾，月破辰巽，日破巳巽，天德丙，月德丙，昼贵巳……＝＝（更多神煞注册可见）</t>
+        </is>
+      </c>
+      <c r="AG193" t="inlineStr">
+        <is>
+          <t>恒之大有</t>
+        </is>
+      </c>
+      <c r="AH193" t="inlineStr">
+        <is>
+          <t>恒</t>
+        </is>
+      </c>
+      <c r="AI193" t="inlineStr">
+        <is>
+          <t>大有</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="B194" t="n">
+        <v>193</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2025-10-21 21:50:18</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>6cf64bbff139498303fb1c22510f55b4</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>21:49</t>
+        </is>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>乙巳</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
+        <v>9</v>
+      </c>
+      <c r="O194" t="n">
+        <v>1</v>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>寒露</t>
+        </is>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>乙巳</t>
+        </is>
+      </c>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>丙戌</t>
+        </is>
+      </c>
+      <c r="S194" t="inlineStr">
+        <is>
+          <t>癸亥</t>
+        </is>
+      </c>
+      <c r="T194" t="inlineStr">
+        <is>
+          <t>癸亥</t>
+        </is>
+      </c>
+      <c r="U194" t="inlineStr">
+        <is>
+          <t>寅卯</t>
+        </is>
+      </c>
+      <c r="V194" t="inlineStr">
+        <is>
+          <t>午未</t>
+        </is>
+      </c>
+      <c r="W194" t="inlineStr">
+        <is>
+          <t>子丑</t>
+        </is>
+      </c>
+      <c r="X194" t="inlineStr">
+        <is>
+          <t>子丑</t>
+        </is>
+      </c>
+      <c r="Y194" t="inlineStr">
+        <is>
+          <t>寒露10月8日8:42</t>
+        </is>
+      </c>
+      <c r="Z194" t="inlineStr">
+        <is>
+          <t>霜降10月23日11:52</t>
+        </is>
+      </c>
+      <c r="AA194" t="inlineStr">
+        <is>
+          <t>申</t>
+        </is>
+      </c>
+      <c r="AB194" t="inlineStr">
+        <is>
+          <t>四爻</t>
+        </is>
+      </c>
+      <c r="AD194" t="inlineStr">
+        <is>
+          <t>岁破亥乾，月破辰巽，日破巳巽，天德丙，月德丙，昼贵巳……＝＝（更多神煞注册可见）</t>
+        </is>
+      </c>
+      <c r="AE194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">公历： 2025年10月21日21:50 星期二
+农历： 乙巳(蛇)年九月大初一 寒露 
+干支：　乙巳　丙戌　癸亥　癸亥
+旬空：　寅卯　午未　子丑　子丑
+寒露10月8日8:42  霜降10月23日11:52 
+六神　　伏神　　水地比[坤宫归魂卦]　　　　　火雷噬嗑[巽宫五世卦]
+白虎　　　　　　▆▆　▆▆妻财戊子水应Ｘ→　▆▆▆▆▆父母己巳火　　
+螣蛇　　　　　　▆▆▆▆▆兄弟戊戌土　Ｏ→　▆▆　▆▆兄弟己未土世　
+勾陈　　　　　　▆▆　▆▆子孙戊申金　Ｘ→　▆▆▆▆▆子孙己酉金　　
+朱雀　　　　　　▆▆　▆▆官鬼乙卯木世　　　▆▆　▆▆兄弟庚辰土　　
+青龙　　　　　　▆▆　▆▆父母乙巳火　　　　▆▆　▆▆官鬼庚寅木应　
+玄武　　　　　　▆▆　▆▆兄弟乙未土　Ｘ→　▆▆▆▆▆妻财庚子水　　
+　　　　　　　　　[本卦]　　　　　　　　　　　[变卦]　　　　　　
+</t>
+        </is>
+      </c>
+      <c r="AF194" t="inlineStr">
+        <is>
+          <t>比之噬嗑；月卦身申；世身在四爻； 
+神煞：岁破亥乾，月破辰巽，日破巳巽，天德丙，月德丙，昼贵巳……＝＝（更多神煞注册可见）</t>
+        </is>
+      </c>
+      <c r="AG194" t="inlineStr">
+        <is>
+          <t>比之噬嗑</t>
+        </is>
+      </c>
+      <c r="AH194" t="inlineStr">
+        <is>
+          <t>比</t>
+        </is>
+      </c>
+      <c r="AI194" t="inlineStr">
+        <is>
+          <t>噬嗑</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="B195" t="n">
+        <v>194</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2025-10-21 21:50:22</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>9d0e140b7b88af9d7cf6d0acb013217f</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>21:49</t>
+        </is>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>乙巳</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
+        <v>9</v>
+      </c>
+      <c r="O195" t="n">
+        <v>1</v>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>寒露</t>
+        </is>
+      </c>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>乙巳</t>
+        </is>
+      </c>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>丙戌</t>
+        </is>
+      </c>
+      <c r="S195" t="inlineStr">
+        <is>
+          <t>癸亥</t>
+        </is>
+      </c>
+      <c r="T195" t="inlineStr">
+        <is>
+          <t>癸亥</t>
+        </is>
+      </c>
+      <c r="U195" t="inlineStr">
+        <is>
+          <t>寅卯</t>
+        </is>
+      </c>
+      <c r="V195" t="inlineStr">
+        <is>
+          <t>午未</t>
+        </is>
+      </c>
+      <c r="W195" t="inlineStr">
+        <is>
+          <t>子丑</t>
+        </is>
+      </c>
+      <c r="X195" t="inlineStr">
+        <is>
+          <t>子丑</t>
+        </is>
+      </c>
+      <c r="Y195" t="inlineStr">
+        <is>
+          <t>寒露10月8日8:42</t>
+        </is>
+      </c>
+      <c r="Z195" t="inlineStr">
+        <is>
+          <t>霜降10月23日11:52</t>
+        </is>
+      </c>
+      <c r="AA195" t="inlineStr">
+        <is>
+          <t>卯</t>
+        </is>
+      </c>
+      <c r="AB195" t="inlineStr">
+        <is>
+          <t>一爻</t>
+        </is>
+      </c>
+      <c r="AD195" t="inlineStr">
+        <is>
+          <t>岁破亥乾，月破辰巽，日破巳巽，天德丙，月德丙，昼贵巳……＝＝（更多神煞注册可见）</t>
+        </is>
+      </c>
+      <c r="AE195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">公历： 2025年10月21日21:50 星期二
+农历： 乙巳(蛇)年九月大初一 寒露 
+干支：　乙巳　丙戌　癸亥　癸亥
+旬空：　寅卯　午未　子丑　子丑
+寒露10月8日8:42  霜降10月23日11:52 
+六神　　伏神　　天水讼[离宫游魂卦]　　　　
+白虎　　　　　　▆▆▆▆▆子孙壬戌土　　　　
+螣蛇　　　　　　▆▆▆▆▆妻财壬申金　　　　
+勾陈　　　　　　▆▆▆▆▆兄弟壬午火世　　　
+朱雀　官鬼己亥水▆▆　▆▆兄弟戊午火　　　　
+青龙　　　　　　▆▆▆▆▆子孙戊辰土　　　　
+玄武　　　　　　▆▆　▆▆父母戊寅木应　　　
+　　　　　　　　　[本卦]　　　　　　　　　
+</t>
+        </is>
+      </c>
+      <c r="AF195" t="inlineStr">
+        <is>
+          <t>讼之讼；月卦身卯；世身在一爻； 
+神煞：岁破亥乾，月破辰巽，日破巳巽，天德丙，月德丙，昼贵巳……＝＝（更多神煞注册可见）</t>
+        </is>
+      </c>
+      <c r="AG195" t="inlineStr">
+        <is>
+          <t>讼之讼</t>
+        </is>
+      </c>
+      <c r="AH195" t="inlineStr">
+        <is>
+          <t>讼</t>
+        </is>
+      </c>
+      <c r="AI195" t="inlineStr">
+        <is>
+          <t>讼</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="B196" t="n">
+        <v>195</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2025-10-21 21:50:23</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>902ed9d36bac42cf1ca2315c0917fe16</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>21:49</t>
+        </is>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>乙巳</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
+        <v>9</v>
+      </c>
+      <c r="O196" t="n">
+        <v>1</v>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>寒露</t>
+        </is>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>乙巳</t>
+        </is>
+      </c>
+      <c r="R196" t="inlineStr">
+        <is>
+          <t>丙戌</t>
+        </is>
+      </c>
+      <c r="S196" t="inlineStr">
+        <is>
+          <t>癸亥</t>
+        </is>
+      </c>
+      <c r="T196" t="inlineStr">
+        <is>
+          <t>癸亥</t>
+        </is>
+      </c>
+      <c r="U196" t="inlineStr">
+        <is>
+          <t>寅卯</t>
+        </is>
+      </c>
+      <c r="V196" t="inlineStr">
+        <is>
+          <t>午未</t>
+        </is>
+      </c>
+      <c r="W196" t="inlineStr">
+        <is>
+          <t>子丑</t>
+        </is>
+      </c>
+      <c r="X196" t="inlineStr">
+        <is>
+          <t>子丑</t>
+        </is>
+      </c>
+      <c r="Y196" t="inlineStr">
+        <is>
+          <t>寒露10月8日8:42</t>
+        </is>
+      </c>
+      <c r="Z196" t="inlineStr">
+        <is>
+          <t>霜降10月23日11:52</t>
+        </is>
+      </c>
+      <c r="AA196" t="inlineStr">
+        <is>
+          <t>酉</t>
+        </is>
+      </c>
+      <c r="AB196" t="inlineStr">
+        <is>
+          <t>五爻</t>
+        </is>
+      </c>
+      <c r="AD196" t="inlineStr">
+        <is>
+          <t>岁破亥乾，月破辰巽，日破巳巽，天德丙，月德丙，昼贵巳……＝＝（更多神煞注册可见）</t>
+        </is>
+      </c>
+      <c r="AE196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">公历： 2025年10月21日21:50 星期二
+农历： 乙巳(蛇)年九月大初一 寒露 
+干支：　乙巳　丙戌　癸亥　癸亥
+旬空：　寅卯　午未　子丑　子丑
+寒露10月8日8:42  霜降10月23日11:52 
+六神　　伏神　　山雷颐[巽宫游魂卦]　　　　　风雷益[巽宫三世卦]　
+白虎　　　　　　▆▆▆▆▆兄弟丙寅木　　　　▆▆▆▆▆兄弟辛卯木应　
+螣蛇　子孙辛巳火▆▆　▆▆父母丙子水　Ｘ→　▆▆▆▆▆子孙辛巳火　　
+勾陈　　　　　　▆▆　▆▆妻财丙戌土世　　　▆▆　▆▆妻财辛未土　　
+朱雀　官鬼辛酉金▆▆　▆▆妻财庚辰土　　　　▆▆　▆▆妻财庚辰土世　
+青龙　　　　　　▆▆　▆▆兄弟庚寅木　　　　▆▆　▆▆兄弟庚寅木　　
+玄武　　　　　　▆▆▆▆▆父母庚子水应　　　▆▆▆▆▆父母庚子水　　
+　　　　　　　　　[本卦]　　　　　　　　　　　[变卦]　　　　　　
+</t>
+        </is>
+      </c>
+      <c r="AF196" t="inlineStr">
+        <is>
+          <t>颐之益；月卦身酉；世身在五爻； 
+神煞：岁破亥乾，月破辰巽，日破巳巽，天德丙，月德丙，昼贵巳……＝＝（更多神煞注册可见）</t>
+        </is>
+      </c>
+      <c r="AG196" t="inlineStr">
+        <is>
+          <t>颐之益</t>
+        </is>
+      </c>
+      <c r="AH196" t="inlineStr">
+        <is>
+          <t>颐</t>
+        </is>
+      </c>
+      <c r="AI196" t="inlineStr">
+        <is>
+          <t>益</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="B197" t="n">
+        <v>196</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>2025-10-21 21:50:26</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>efba2c6a0919f31c4cce6b7af0461292</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>21:49</t>
+        </is>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>乙巳</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
+        <v>9</v>
+      </c>
+      <c r="O197" t="n">
+        <v>1</v>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>寒露</t>
+        </is>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>乙巳</t>
+        </is>
+      </c>
+      <c r="R197" t="inlineStr">
+        <is>
+          <t>丙戌</t>
+        </is>
+      </c>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t>癸亥</t>
+        </is>
+      </c>
+      <c r="T197" t="inlineStr">
+        <is>
+          <t>癸亥</t>
+        </is>
+      </c>
+      <c r="U197" t="inlineStr">
+        <is>
+          <t>寅卯</t>
+        </is>
+      </c>
+      <c r="V197" t="inlineStr">
+        <is>
+          <t>午未</t>
+        </is>
+      </c>
+      <c r="W197" t="inlineStr">
+        <is>
+          <t>子丑</t>
+        </is>
+      </c>
+      <c r="X197" t="inlineStr">
+        <is>
+          <t>子丑</t>
+        </is>
+      </c>
+      <c r="Y197" t="inlineStr">
+        <is>
+          <t>寒露10月8日8:42</t>
+        </is>
+      </c>
+      <c r="Z197" t="inlineStr">
+        <is>
+          <t>霜降10月23日11:52</t>
+        </is>
+      </c>
+      <c r="AA197" t="inlineStr">
+        <is>
+          <t>卯</t>
+        </is>
+      </c>
+      <c r="AB197" t="inlineStr">
+        <is>
+          <t>一爻</t>
+        </is>
+      </c>
+      <c r="AD197" t="inlineStr">
+        <is>
+          <t>岁破亥乾，月破辰巽，日破巳巽，天德丙，月德丙，昼贵巳……＝＝（更多神煞注册可见）</t>
+        </is>
+      </c>
+      <c r="AE197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">公历： 2025年10月21日21:50 星期二
+农历： 乙巳(蛇)年九月大初一 寒露 
+干支：　乙巳　丙戌　癸亥　癸亥
+旬空：　寅卯　午未　子丑　子丑
+寒露10月8日8:42  霜降10月23日11:52 
+六神　　伏神　　天水讼[离宫游魂卦]　　　　　泽水困[兑宫一世卦]　
+白虎　　　　　　▆▆▆▆▆子孙壬戌土　Ｏ→　▆▆　▆▆子孙丁未土　　
+螣蛇　　　　　　▆▆▆▆▆妻财壬申金　　　　▆▆▆▆▆妻财丁酉金　　
+勾陈　　　　　　▆▆▆▆▆兄弟壬午火世　　　▆▆▆▆▆官鬼丁亥水应　
+朱雀　官鬼己亥水▆▆　▆▆兄弟戊午火　　　　▆▆　▆▆兄弟戊午火　　
+青龙　　　　　　▆▆▆▆▆子孙戊辰土　　　　▆▆▆▆▆子孙戊辰土　　
+玄武　　　　　　▆▆　▆▆父母戊寅木应　　　▆▆　▆▆父母戊寅木世　
+　　　　　　　　　[本卦]　　　　　　　　　　　[变卦]　　　　　　
+</t>
+        </is>
+      </c>
+      <c r="AF197" t="inlineStr">
+        <is>
+          <t>讼之困；月卦身卯；世身在一爻； 
+神煞：岁破亥乾，月破辰巽，日破巳巽，天德丙，月德丙，昼贵巳……＝＝（更多神煞注册可见）</t>
+        </is>
+      </c>
+      <c r="AG197" t="inlineStr">
+        <is>
+          <t>讼之困</t>
+        </is>
+      </c>
+      <c r="AH197" t="inlineStr">
+        <is>
+          <t>讼</t>
+        </is>
+      </c>
+      <c r="AI197" t="inlineStr">
+        <is>
+          <t>困</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
